--- a/OpenXmlImports.Tests/TestFiles/Import_Root_Properties_And_Fields.xlsx
+++ b/OpenXmlImports.Tests/TestFiles/Import_Root_Properties_And_Fields.xlsx
@@ -356,7 +356,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -385,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
